--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="161">
   <si>
     <t>Section</t>
   </si>
@@ -35,12 +35,90 @@
     <t>TC status</t>
   </si>
   <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>Verify that user can log in with valid e-mail address and password</t>
+  </si>
+  <si>
+    <t>TC 1</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Verify that user can log in with invalid e-mail address and valid password</t>
+  </si>
+  <si>
+    <t>TC 2</t>
+  </si>
+  <si>
+    <t>Verify that user can log in with valid e-mail address and invalid password</t>
+  </si>
+  <si>
+    <t>TC 3</t>
+  </si>
+  <si>
+    <t>Verify that user can log in with no credentials</t>
+  </si>
+  <si>
+    <t>TC 4</t>
+  </si>
+  <si>
+    <t>Verify that user can sign out from his or her profile</t>
+  </si>
+  <si>
+    <t>TC 5</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Verify that user can update his or her address successfully</t>
+  </si>
+  <si>
+    <t>TC 6</t>
+  </si>
+  <si>
+    <t>Verify that user can add a new address successfully</t>
+  </si>
+  <si>
+    <t>TC 7</t>
+  </si>
+  <si>
+    <t>Verify that user can delete his or her address successfully</t>
+  </si>
+  <si>
+    <t>TC 8</t>
+  </si>
+  <si>
+    <t>Personal information</t>
+  </si>
+  <si>
+    <t>Verify that user can edit his or her personal information successfully</t>
+  </si>
+  <si>
+    <t>TC 9</t>
+  </si>
+  <si>
+    <t>Wishlist</t>
+  </si>
+  <si>
+    <t>Verify that user can add a wishlist successfully</t>
+  </si>
+  <si>
+    <t>TC 10</t>
+  </si>
+  <si>
+    <t>Verify that user can add multiple wishlists successfully</t>
+  </si>
+  <si>
+    <t>TC 11</t>
+  </si>
+  <si>
     <t>TC: 1</t>
   </si>
   <si>
-    <t>Verify that user can log in with valid e-mail address and password</t>
-  </si>
-  <si>
     <t xml:space="preserve">TEST DATA </t>
   </si>
   <si>
@@ -86,51 +164,45 @@
     <t>The email address is entered and it is visible.</t>
   </si>
   <si>
+    <t>horvatmina@fmail.com</t>
+  </si>
+  <si>
+    <t>Click on the 'Password' field and enter the password</t>
+  </si>
+  <si>
+    <t>The password is entered and it is visible</t>
+  </si>
+  <si>
+    <t>mina123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the 'Sign in' button </t>
+  </si>
+  <si>
+    <t>The user is signed in and welcome message is visible</t>
+  </si>
+  <si>
+    <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
+  </si>
+  <si>
+    <t>TC: 2</t>
+  </si>
+  <si>
+    <t>TEST DATA</t>
+  </si>
+  <si>
+    <t>The user is not able to sign in. There is an error message where the user is informed about invalid e-mail address.</t>
+  </si>
+  <si>
+    <t>There is 1 error</t>
+  </si>
+  <si>
+    <t>TC: 3</t>
+  </si>
+  <si>
     <t>horvatmina@fakemail.com</t>
   </si>
   <si>
-    <t>Click on the 'Password' field and enter the password</t>
-  </si>
-  <si>
-    <t>The password is entered and it is visible</t>
-  </si>
-  <si>
-    <t>mina123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the 'Sign in' button </t>
-  </si>
-  <si>
-    <t>The user is signed in and welcome message is visible</t>
-  </si>
-  <si>
-    <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
-  </si>
-  <si>
-    <t>TC: 2</t>
-  </si>
-  <si>
-    <t>Verify that user can log in with invalid e-mail address and valid password</t>
-  </si>
-  <si>
-    <t>TEST DATA</t>
-  </si>
-  <si>
-    <t>horvatmina@fmail.com</t>
-  </si>
-  <si>
-    <t>The user is not able to sign in. There is an error message where the user is informed about invalid e-mail address.</t>
-  </si>
-  <si>
-    <t>There is 1 error</t>
-  </si>
-  <si>
-    <t>TC: 3</t>
-  </si>
-  <si>
-    <t>Verify that user can log in with valid e-mail address and invalid password</t>
-  </si>
-  <si>
     <t>The password is entered and it is visible.</t>
   </si>
   <si>
@@ -143,9 +215,6 @@
     <t>TC: 4</t>
   </si>
   <si>
-    <t>Verify that user can log in with no credentials</t>
-  </si>
-  <si>
     <t>Click on the 'Email address' field and leave the blank space</t>
   </si>
   <si>
@@ -161,9 +230,6 @@
     <t>TC: 5</t>
   </si>
   <si>
-    <t>Verify that user can sign out from his or her profile</t>
-  </si>
-  <si>
     <t>The user is signed in and 'Sign out' tab is visible.</t>
   </si>
   <si>
@@ -180,9 +246,6 @@
   </si>
   <si>
     <t>TC: 6</t>
-  </si>
-  <si>
-    <t>Verify that user can update his or her address successfully</t>
   </si>
   <si>
     <r>
@@ -247,9 +310,6 @@
     <t>TC: 7</t>
   </si>
   <si>
-    <t>Verify that user can add a new address successfully</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on 'Add a new address' button </t>
   </si>
   <si>
@@ -313,9 +373,6 @@
     <t>TC: 8</t>
   </si>
   <si>
-    <t>Verify that user can delete his or her address successfully</t>
-  </si>
-  <si>
     <t>Click on 'Delete' button under MY ADDRESS section</t>
   </si>
   <si>
@@ -332,9 +389,6 @@
   </si>
   <si>
     <t>TC: 9</t>
-  </si>
-  <si>
-    <t>Verify that user can edit his or her personal information successfully</t>
   </si>
   <si>
     <r>
@@ -426,9 +480,6 @@
     <t>TC: 10</t>
   </si>
   <si>
-    <t>Verify that user can add a wishlist successfully</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -473,9 +524,6 @@
     <t>TC: 11</t>
   </si>
   <si>
-    <t>Verify that user can add multiple wishlist successfully</t>
-  </si>
-  <si>
     <t>Hats</t>
   </si>
   <si>
@@ -483,6 +531,36 @@
   </si>
   <si>
     <t>Pants</t>
+  </si>
+  <si>
+    <t>TC: 12</t>
+  </si>
+  <si>
+    <t>Verify that user can remove one wishlist successfully</t>
+  </si>
+  <si>
+    <t>Click on 'X' button placed in the first wishlist</t>
+  </si>
+  <si>
+    <t>Pop up message shows up asking the user 'Do you really want to delete this wishlist ?'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on 'Ok' button </t>
+  </si>
+  <si>
+    <t>Pop up message is closed and wishlist is deleted</t>
+  </si>
+  <si>
+    <t>TC: 13</t>
+  </si>
+  <si>
+    <t>Verify that user can remove all wishlists successfully</t>
+  </si>
+  <si>
+    <t>Click on 'X' button placed in the last wishlist</t>
+  </si>
+  <si>
+    <t>Pop up message is closed and all wishlists are deleted</t>
   </si>
 </sst>
 </file>
@@ -490,10 +568,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -521,14 +599,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -542,11 +612,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,8 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,14 +686,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -619,17 +694,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,8 +709,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,7 +732,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -672,7 +748,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,13 +763,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,7 +883,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,19 +907,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,49 +925,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,78 +947,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -881,11 +957,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,17 +996,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,15 +1027,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,26 +1048,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,132 +1075,132 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,31 +1218,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1519,36 +1610,175 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="24.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="26.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="36.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="50.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="40.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="34.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30" spans="1:5">
+      <c r="A2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="30" spans="1:5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="30" spans="1:5">
+      <c r="A6" s="8"/>
+      <c r="B6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="30" spans="1:5">
+      <c r="A7" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" ht="30" spans="1:5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="30" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:5">
+      <c r="A11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1562,8 +1792,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1579,567 +1809,567 @@
   <sheetData>
     <row r="1" ht="59" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="2:4">
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="2:5">
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6"/>
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="30" spans="2:5">
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>22</v>
+      <c r="B6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
+      <c r="B7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="45" spans="2:5">
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
+      <c r="B8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="6"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" ht="53" customHeight="1" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="B13" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="30" spans="2:5">
-      <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>32</v>
+      <c r="B15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>25</v>
+      <c r="B16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="30" spans="2:5">
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>34</v>
+      <c r="B17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="6"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" ht="51" customHeight="1" spans="1:7">
       <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="6"/>
+      <c r="B22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" ht="30" spans="2:5">
-      <c r="B23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="6"/>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>22</v>
+      <c r="B24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>38</v>
+      <c r="B25" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="30" spans="2:5">
-      <c r="B26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>34</v>
+      <c r="B26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="6"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" ht="49.5" customHeight="1" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="E30" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="B31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="7"/>
       <c r="E31" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="30" spans="2:5">
-      <c r="B32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="6"/>
+      <c r="B32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="13"/>
+      <c r="B33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="16"/>
       <c r="E33" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="6"/>
+      <c r="B34" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="E34" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="30" spans="2:5">
-      <c r="B35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>34</v>
+      <c r="B35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="4:4">
-      <c r="D36" s="6"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" ht="47.25" customHeight="1" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="6"/>
+      <c r="B39" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="6"/>
+      <c r="B40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="30" spans="2:5">
-      <c r="B41" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="6"/>
+      <c r="B41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>22</v>
+      <c r="B42" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>25</v>
+      <c r="B43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>49</v>
+      <c r="B44" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="30" spans="2:5">
-      <c r="B45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>52</v>
+      <c r="B45" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" display="horvatmina@fakemail.com"/>
     <hyperlink ref="D24" r:id="rId1" display="horvatmina@fakemail.com"/>
     <hyperlink ref="D42" r:id="rId1" display="horvatmina@fakemail.com"/>
-    <hyperlink ref="D15" r:id="rId2" display="horvatmina@fmail.com"/>
+    <hyperlink ref="D15" r:id="rId2" display="horvatmina@fmail.com" tooltip="mailto:horvatmina@fmail.com"/>
+    <hyperlink ref="D6" r:id="rId2" display="horvatmina@fmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2152,8 +2382,8 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2168,27 +2398,27 @@
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2196,355 +2426,355 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="2:4">
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="6"/>
+      <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="7"/>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>62</v>
+      <c r="B6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="30" spans="2:5">
-      <c r="B9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>67</v>
+      <c r="B9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="6"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" ht="42" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="B16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>71</v>
+      <c r="B17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>74</v>
+      <c r="B18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>77</v>
+      <c r="B19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="6">
+      <c r="B20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="7">
         <v>21000</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>82</v>
+      <c r="B21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="2:5">
+      <c r="B23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" ht="30" spans="2:5">
-      <c r="B23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="6"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" ht="42" customHeight="1" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="6"/>
+      <c r="B29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="7"/>
       <c r="E29" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>94</v>
+      <c r="B30" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>88</v>
+      <c r="B31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2792,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2578,182 +2808,182 @@
   <sheetData>
     <row r="1" ht="42.75" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="30" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>101</v>
+      <c r="B4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>104</v>
+      <c r="B5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>107</v>
+      <c r="B6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="30" spans="2:5">
-      <c r="B7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
+      <c r="B7" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="30" spans="2:5">
-      <c r="B8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>110</v>
+      <c r="B8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>117</v>
+      <c r="B11" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>120</v>
+      <c r="B12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" ht="30" spans="2:5">
-      <c r="B13" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
+      <c r="B13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" ht="30" spans="2:5">
-      <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>110</v>
+      <c r="B14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2765,10 +2995,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2784,150 +3014,331 @@
   <sheetData>
     <row r="1" ht="55.5" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" ht="30" spans="2:2">
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" ht="41.25" customHeight="1" spans="1:6">
+    <row r="4" spans="2:5">
+      <c r="B4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" ht="54" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" ht="30" spans="2:2">
       <c r="B9" s="4" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="7" t="s">
-        <v>11</v>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>134</v>
+    <row r="11" spans="2:5">
+      <c r="B11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" ht="55" customHeight="1" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="2:7">
+      <c r="B17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="2:5">
+      <c r="B20" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="2:5">
+      <c r="B26" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" ht="30" spans="2:5">
+      <c r="B28" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" ht="30" spans="2:5">
+      <c r="B29" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="161">
   <si>
     <t>Section</t>
   </si>
@@ -164,33 +164,36 @@
     <t>The email address is entered and it is visible.</t>
   </si>
   <si>
+    <t>horvatmina@fakemail.com</t>
+  </si>
+  <si>
+    <t>Click on the 'Password' field and enter the password</t>
+  </si>
+  <si>
+    <t>The password is entered and it is visible</t>
+  </si>
+  <si>
+    <t>mina123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the 'Sign in' button </t>
+  </si>
+  <si>
+    <t>The user is signed in and welcome message is visible</t>
+  </si>
+  <si>
+    <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
+  </si>
+  <si>
+    <t>TC: 2</t>
+  </si>
+  <si>
+    <t>TEST DATA</t>
+  </si>
+  <si>
     <t>horvatmina@fmail.com</t>
   </si>
   <si>
-    <t>Click on the 'Password' field and enter the password</t>
-  </si>
-  <si>
-    <t>The password is entered and it is visible</t>
-  </si>
-  <si>
-    <t>mina123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on the 'Sign in' button </t>
-  </si>
-  <si>
-    <t>The user is signed in and welcome message is visible</t>
-  </si>
-  <si>
-    <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
-  </si>
-  <si>
-    <t>TC: 2</t>
-  </si>
-  <si>
-    <t>TEST DATA</t>
-  </si>
-  <si>
     <t>The user is not able to sign in. There is an error message where the user is informed about invalid e-mail address.</t>
   </si>
   <si>
@@ -198,9 +201,6 @@
   </si>
   <si>
     <t>TC: 3</t>
-  </si>
-  <si>
-    <t>horvatmina@fakemail.com</t>
   </si>
   <si>
     <t>The password is entered and it is visible.</t>
@@ -568,10 +568,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -618,15 +618,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,9 +633,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,14 +658,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,7 +703,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,37 +748,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,19 +763,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +823,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,139 +937,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,17 +957,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,22 +990,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,24 +1046,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,131 +1076,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1228,9 +1228,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1626,27 +1623,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="30" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -1658,7 +1655,7 @@
     </row>
     <row r="3" ht="30" spans="1:5">
       <c r="A3" s="8"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1670,7 +1667,7 @@
     </row>
     <row r="4" ht="30" spans="1:5">
       <c r="A4" s="8"/>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1680,9 +1677,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="1:5">
+    <row r="5" spans="1:5">
       <c r="A5" s="8"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1692,9 +1689,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="8"/>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1704,11 +1701,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="1:5">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1718,9 +1715,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" ht="30" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" s="8"/>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1730,9 +1727,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" s="8"/>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1743,10 +1740,10 @@
       </c>
     </row>
     <row r="10" ht="30" spans="1:5">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1756,11 +1753,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="1:5">
-      <c r="A11" s="18" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1771,7 +1768,7 @@
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1793,7 +1790,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1837,7 +1834,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" customHeight="1" spans="2:5">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1849,7 +1846,7 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1861,7 +1858,7 @@
       </c>
     </row>
     <row r="5" ht="30" spans="2:5">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1873,13 +1870,13 @@
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -1887,7 +1884,7 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1901,7 +1898,7 @@
       </c>
     </row>
     <row r="8" ht="45" spans="2:5">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1989,8 +1986,8 @@
       <c r="C15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>48</v>
+      <c r="D15" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>41</v>
@@ -2015,10 +2012,10 @@
         <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>41</v>
@@ -2029,7 +2026,7 @@
     </row>
     <row r="19" ht="51" customHeight="1" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
@@ -2099,8 +2096,8 @@
       <c r="C24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>60</v>
+      <c r="D24" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>41</v>
@@ -2128,7 +2125,7 @@
         <v>63</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>41</v>
@@ -2209,7 +2206,7 @@
       <c r="C33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="5" t="s">
         <v>41</v>
       </c>
@@ -2234,7 +2231,7 @@
         <v>63</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>41</v>
@@ -2315,8 +2312,8 @@
       <c r="C42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>60</v>
+      <c r="D42" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>41</v>
@@ -2369,7 +2366,7 @@
     <hyperlink ref="D24" r:id="rId1" display="horvatmina@fakemail.com"/>
     <hyperlink ref="D42" r:id="rId1" display="horvatmina@fakemail.com"/>
     <hyperlink ref="D15" r:id="rId2" display="horvatmina@fmail.com" tooltip="mailto:horvatmina@fmail.com"/>
-    <hyperlink ref="D6" r:id="rId2" display="horvatmina@fmail.com"/>
+    <hyperlink ref="D6" r:id="rId1" display="horvatmina@fakemail.com" tooltip="mailto:horvatmina@fakemail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -2663,7 +2660,7 @@
       <c r="C22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>105</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -2741,7 +2738,7 @@
       <c r="B29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D29" s="7"/>
@@ -2753,7 +2750,7 @@
       <c r="B30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>112</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -2767,7 +2764,7 @@
       <c r="B31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -2841,10 +2838,10 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D4" s="3"/>
@@ -2853,13 +2850,13 @@
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>122</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2997,8 +2994,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3079,9 +3076,7 @@
       <c r="C6" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>145</v>
-      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="5" t="s">
         <v>41</v>
       </c>
@@ -3152,9 +3147,7 @@
       <c r="C13" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="5" t="s">
         <v>41</v>
       </c>
@@ -3180,9 +3173,7 @@
       <c r="C15" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>150</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
@@ -3232,10 +3223,10 @@
       </c>
     </row>
     <row r="20" ht="30" spans="2:5">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>154</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3243,10 +3234,10 @@
       </c>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>156</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -3298,10 +3289,10 @@
       </c>
     </row>
     <row r="26" ht="30" spans="2:5">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>154</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3309,10 +3300,10 @@
       </c>
     </row>
     <row r="27" spans="2:5">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>156</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -3320,10 +3311,10 @@
       </c>
     </row>
     <row r="28" ht="30" spans="2:5">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>154</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -3331,10 +3322,10 @@
       </c>
     </row>
     <row r="29" ht="30" spans="2:5">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>160</v>
       </c>
       <c r="E29" s="5" t="s">
